--- a/自选基金助手-基金配置.xlsx
+++ b/自选基金助手-基金配置.xlsx
@@ -1,185 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <bookViews>
-    <workbookView xWindow="516" yWindow="552" windowWidth="11232" windowHeight="6060"/>
-  </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>成本价</t>
-  </si>
-  <si>
-    <t>持有份额</t>
-  </si>
-  <si>
-    <t>165520</t>
-  </si>
-  <si>
-    <t>信诚中证800有色指数(LOF)</t>
-  </si>
-  <si>
-    <t>160322</t>
-  </si>
-  <si>
-    <t>华夏港股通精选股票LOF</t>
-  </si>
-  <si>
-    <t>001878</t>
-  </si>
-  <si>
-    <t>嘉实沪港深精选股票</t>
-  </si>
-  <si>
-    <t>001188</t>
-  </si>
-  <si>
-    <t>鹏华改革红利股票</t>
-  </si>
-  <si>
-    <t>004292</t>
-  </si>
-  <si>
-    <t>鹏华沪深港互联网股票</t>
-  </si>
-  <si>
-    <t>519033</t>
-  </si>
-  <si>
-    <t>海富通国策导向混合</t>
-  </si>
-  <si>
-    <t>210008</t>
-  </si>
-  <si>
-    <t>金鹰策略配置混合</t>
-  </si>
-  <si>
-    <t>000689</t>
-  </si>
-  <si>
-    <t>前海开源新经济混合</t>
-  </si>
-  <si>
-    <t>001740</t>
-  </si>
-  <si>
-    <t>光大中国制造2025混合</t>
-  </si>
-  <si>
-    <t>005940</t>
-  </si>
-  <si>
-    <t>工银新能源汽车混合C</t>
-  </si>
-  <si>
-    <t>720001</t>
-  </si>
-  <si>
-    <t>财通价值动量混合</t>
-  </si>
-  <si>
-    <t>003835</t>
-  </si>
-  <si>
-    <t>鹏华沪深港新兴成长混合</t>
-  </si>
-  <si>
-    <t>001410</t>
-  </si>
-  <si>
-    <t>160625</t>
-  </si>
-  <si>
-    <t>001643</t>
-  </si>
-  <si>
-    <t>004997</t>
-  </si>
-  <si>
-    <t>519674</t>
-  </si>
-  <si>
-    <t>001809</t>
-  </si>
-  <si>
-    <t>000742</t>
-  </si>
-  <si>
-    <t>001986</t>
-  </si>
-  <si>
-    <t>161903</t>
-  </si>
-  <si>
-    <t>000601</t>
-  </si>
-  <si>
-    <t>国泰新经济灵活配置混合</t>
-  </si>
-  <si>
-    <t>中信建投智信物联网A</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>广发高端制造股票A</t>
-  </si>
-  <si>
-    <t>万家行业优选混合(LOF)</t>
-  </si>
-  <si>
-    <t>银河创新成长混合</t>
-  </si>
-  <si>
-    <t>华宝创新优选混合</t>
-  </si>
-  <si>
-    <t>前海开源人工智能主题混合</t>
-  </si>
-  <si>
-    <t>汇丰晋信智造先锋股票A</t>
-  </si>
-  <si>
-    <t>鹏华证券保险指数(LOF)</t>
-  </si>
-  <si>
-    <t>信达澳银新能源产业股票</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -203,83 +42,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -291,7 +61,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -605,294 +375,324 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M6:M7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="13.796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.796875" customWidth="1"/>
-    <col min="3" max="3" width="11.796875" customWidth="1"/>
-    <col min="4" max="4" width="13.796875" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="37.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>基金代码</v>
+      </c>
+      <c r="B1" t="str">
+        <v>基金名称</v>
+      </c>
+      <c r="C1" t="str">
+        <v>成本价</v>
+      </c>
+      <c r="D1" t="str">
+        <v>持有份额</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>165520</v>
+      </c>
+      <c r="B2" t="str">
+        <v>信诚中证800有色指数(LOF)</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>160322</v>
+      </c>
+      <c r="B3" t="str">
+        <v>华夏港股通精选股票LOF</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>001878</v>
+      </c>
+      <c r="B4" t="str">
+        <v>嘉实沪港深精选股票</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>001188</v>
+      </c>
+      <c r="B5" t="str">
+        <v>鹏华改革红利股票</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>519033</v>
+      </c>
+      <c r="B6" t="str">
+        <v>海富通国策导向混合</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>210008</v>
+      </c>
+      <c r="B7" t="str">
+        <v>金鹰策略配置混合</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>000689</v>
+      </c>
+      <c r="B8" t="str">
+        <v>前海开源新经济混合</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>004292</v>
+      </c>
+      <c r="B9" t="str">
+        <v>鹏华沪深港互联网股票</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>001740</v>
+      </c>
+      <c r="B10" t="str">
+        <v>光大中国制造2025混合</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>005940</v>
+      </c>
+      <c r="B11" t="str">
+        <v>工银新能源汽车混合C</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>720001</v>
+      </c>
+      <c r="B12" t="str">
+        <v>财通价值动量混合</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>003835</v>
+      </c>
+      <c r="B13" t="str">
+        <v>鹏华沪深港新兴成长混合</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>000742</v>
+      </c>
+      <c r="B14" t="str">
+        <v>国泰新经济灵活配置混合</v>
       </c>
       <c r="C14">
-        <v>2.0834000000000001</v>
+        <v>2.0834</v>
       </c>
       <c r="D14">
         <v>2696.66</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>001809</v>
+      </c>
+      <c r="B15" t="str">
+        <v>中信建投智信物联网A</v>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>004997</v>
+      </c>
+      <c r="B16" t="str">
+        <v>广发高端制造股票A</v>
       </c>
       <c r="C16">
-        <v>2.9775999999999998</v>
+        <v>2.9776</v>
       </c>
       <c r="D16">
         <v>268.67</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>161903</v>
+      </c>
+      <c r="B17" t="str">
+        <v>万家行业优选混合(LOF)</v>
       </c>
       <c r="C17">
-        <v>1.9220999999999999</v>
+        <v>1.9221</v>
       </c>
       <c r="D17">
         <v>1923.12</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>44</v>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>519674</v>
+      </c>
+      <c r="B18" t="str">
+        <v>银河创新成长混合</v>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>000601</v>
+      </c>
+      <c r="B19" t="str">
+        <v>华宝创新优选混合</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>45</v>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>001986</v>
+      </c>
+      <c r="B20" t="str">
+        <v>前海开源人工智能主题混合</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>001643</v>
+      </c>
+      <c r="B21" t="str">
+        <v>汇丰晋信智造先锋股票A</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>47</v>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>160625</v>
+      </c>
+      <c r="B22" t="str">
+        <v>鹏华证券保险指数(LOF)</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s">
-        <v>48</v>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>001410</v>
+      </c>
+      <c r="B23" t="str">
+        <v>信达澳银新能源产业股票</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>164402</v>
+      </c>
+      <c r="B24" t="str">
+        <v>前海开源中航军工指数</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>004573</v>
+      </c>
+      <c r="B25" t="str">
+        <v>新华鑫泰灵活配置混合</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>162202</v>
+      </c>
+      <c r="B26" t="str">
+        <v>泰达宏利周期混合</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:D26"/>
+  </ignoredErrors>
 </worksheet>
 </file>